--- a/知识库模版/知识库模版.xlsx
+++ b/知识库模版/知识库模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hain/ai/chatbot-sales/知识库模版/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B71B2-5BB1-F243-AE50-FB91B1EF20FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2DAC98-E58C-2147-BECC-48924AC77C5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>问题</t>
   </si>
@@ -37,9 +37,6 @@
     <t>*扩展问3</t>
   </si>
   <si>
-    <t>*扩展问N</t>
-  </si>
-  <si>
     <t>知识库支持哪些格式的文件</t>
   </si>
   <si>
@@ -58,7 +55,31 @@
     <t>没有限制</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>是否开启</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>*扩展问4</t>
+  </si>
+  <si>
+    <t>*扩展问5</t>
+  </si>
+  <si>
+    <t>*扩展问6</t>
+  </si>
+  <si>
+    <t>*扩展问7</t>
+  </si>
+  <si>
+    <t>*扩展问8</t>
+  </si>
+  <si>
+    <t>*扩展问9</t>
   </si>
 </sst>
 </file>
@@ -435,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,9 +469,9 @@
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -468,35 +489,50 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
